--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7-deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7-deluxe20off.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{FDB147A3-E8E2-45E8-952D-72B88FB71383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5832F91-5DD8-45C3-91F3-05B2C7EDBA0B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{FDB147A3-E8E2-45E8-952D-72B88FB71383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ED90786E-54D4-4C19-89AA-30D3C8F0F9B7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>Pre-Purchase Entry Promotion 1</t>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2358,6 +2358,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2522,12 +2528,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2538,11 +2538,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7-deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7-deluxe20off.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{FDB147A3-E8E2-45E8-952D-72B88FB71383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ED90786E-54D4-4C19-89AA-30D3C8F0F9B7}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{FDB147A3-E8E2-45E8-952D-72B88FB71383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6C5060CC-F262-46F3-854E-741D3BC0ED90}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -74,66 +74,6 @@
   </si>
   <si>
     <t>PMTA36N</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb7-deluxe20off-spring</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=mb7deluxe20offspring</t>
-  </si>
-  <si>
-    <t>mb7deluxe20offspring</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb7-deluxe20off-mom</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=mb7deluxe20offmom</t>
-  </si>
-  <si>
-    <t>mb7deluxe20offmom</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb7-deluxe20off-anniversary</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=mb7deluxe20offanniversary</t>
-  </si>
-  <si>
-    <t>mb7deluxe20offanniversary</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb7-deluxe20off-memorialday</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=mb7deluxe20offmemorial</t>
-  </si>
-  <si>
-    <t>mb7deluxe20offmemorial</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb7-deluxe20off-summer</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=lf_noprep_mb7deluxe20offsummer</t>
-  </si>
-  <si>
-    <t>lf_noprep_mb7deluxe20offsummer</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb7-deluxe20off-july4th</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=lf_noprep_mb7deluxe20off4jul</t>
-  </si>
-  <si>
-    <t>lf_noprep_mb7deluxe20off4jul</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb7-deluxe20off-laborday</t>
-  </si>
-  <si>
-    <t>lf_noprep_mb7deluxe20offlabor</t>
   </si>
   <si>
     <t>Kit</t>
@@ -1203,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1282,1088 +1222,865 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="10">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="10">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
+      <c r="A11" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="10">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
+      <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="B13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="10">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="C13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="25" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
+      <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="10">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="B15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C15" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="10">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="10">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14">
-        <v>2</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="16">
+        <v>49.95</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="110.25">
+      <c r="A23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="94.5">
+      <c r="A24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75">
-      <c r="A24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="16">
-        <v>49.95</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="16">
-        <v>0</v>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75">
+      <c r="A30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75">
+      <c r="A31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="110.25">
-      <c r="A30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="94.5">
-      <c r="A31" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75">
+        <v>68</v>
+      </c>
+      <c r="B33" s="16">
+        <v>55.96</v>
+      </c>
+      <c r="C33" s="16">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="B34" s="16">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+        <v>70</v>
+      </c>
+      <c r="B35" s="16">
+        <v>3</v>
+      </c>
+      <c r="C35" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75">
+        <v>71</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="110.25">
       <c r="A37" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75">
+        <v>74</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="94.5">
       <c r="A38" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>87</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="16">
-        <v>55.96</v>
-      </c>
-      <c r="C40" s="16">
-        <v>49.95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="16">
-        <v>0</v>
-      </c>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="16">
-        <v>3</v>
-      </c>
-      <c r="C42" s="16">
-        <v>3</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:3" ht="15.75">
       <c r="A43" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="110.25">
+        <v>56</v>
+      </c>
+      <c r="C43" s="17"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75">
       <c r="A44" s="13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="94.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75">
+        <v>86</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="15.75">
       <c r="A47" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
       <c r="A48" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="B49" s="14">
+        <v>3</v>
+      </c>
+      <c r="C49" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="15.75">
       <c r="A50" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="15.75">
       <c r="A51" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="B51" s="16">
+        <v>69.95</v>
+      </c>
+      <c r="C51" s="16">
+        <v>49.95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75">
       <c r="A52" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="B52" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="C52" s="16">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75">
       <c r="A53" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75">
       <c r="A54" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75">
+      <c r="A55" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.75">
+      <c r="A56" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75">
+      <c r="A57" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.75">
+      <c r="A58" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="24"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75">
+      <c r="A59" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75">
+      <c r="A60" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.75">
+      <c r="A62" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75">
-      <c r="A56" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="14">
-        <v>3</v>
-      </c>
-      <c r="C56" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75">
-      <c r="A57" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75">
-      <c r="A58" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="16">
-        <v>69.95</v>
-      </c>
-      <c r="C58" s="16">
-        <v>49.95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75">
-      <c r="A59" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="16">
-        <v>4.99</v>
-      </c>
-      <c r="C59" s="16">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75">
-      <c r="A60" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75">
-      <c r="A61" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75">
-      <c r="A62" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:3" ht="15.75">
       <c r="A63" s="18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
     </row>
     <row r="64" spans="1:3" ht="15.75">
       <c r="A64" s="18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="24"/>
+        <v>112</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="19"/>
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="18" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
     </row>
     <row r="67" spans="1:3" ht="15.75">
       <c r="A67" s="18" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+    <row r="68" spans="1:3" ht="15.75">
       <c r="A68" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
     </row>
     <row r="69" spans="1:3" ht="15.75">
       <c r="A69" s="18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
     </row>
     <row r="70" spans="1:3" ht="15.75">
       <c r="A70" s="18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
     </row>
     <row r="71" spans="1:3" ht="15.75">
       <c r="A71" s="18" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+    <row r="72" spans="1:3" ht="15.75">
       <c r="A72" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="B72" s="19"/>
       <c r="C72" s="19"/>
     </row>
     <row r="73" spans="1:3" ht="15.75">
       <c r="A73" s="18" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
     </row>
     <row r="74" spans="1:3" ht="15.75">
       <c r="A74" s="18" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
     </row>
     <row r="75" spans="1:3" ht="15.75">
       <c r="A75" s="18" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
     </row>
     <row r="76" spans="1:3" ht="15.75">
       <c r="A76" s="18" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
     </row>
     <row r="77" spans="1:3" ht="15.75">
       <c r="A77" s="18" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
     </row>
     <row r="78" spans="1:3" ht="15.75">
       <c r="A78" s="18" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
     </row>
     <row r="79" spans="1:3" ht="15.75">
       <c r="A79" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
     </row>
     <row r="80" spans="1:3" ht="15.75">
       <c r="A80" s="18" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
     </row>
     <row r="81" spans="1:3" ht="15.75">
       <c r="A81" s="18" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
     </row>
     <row r="82" spans="1:3" ht="15.75">
       <c r="A82" s="18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
     </row>
     <row r="83" spans="1:3" ht="15.75">
       <c r="A83" s="18" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3" ht="15.75">
       <c r="A84" s="18" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
     </row>
     <row r="85" spans="1:3" ht="15.75">
       <c r="A85" s="18" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3" ht="15.75">
       <c r="A86" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
     </row>
     <row r="87" spans="1:3" ht="15.75">
       <c r="A87" s="18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3" ht="15.75">
       <c r="A88" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
     </row>
     <row r="89" spans="1:3" ht="15.75">
       <c r="A89" s="18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
     </row>
     <row r="90" spans="1:3" ht="15.75">
       <c r="A90" s="18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3" ht="15.75">
       <c r="A91" s="18" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:3" ht="15.75">
       <c r="A92" s="18" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
     </row>
     <row r="93" spans="1:3" ht="15.75">
       <c r="A93" s="18" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3" ht="15.75">
       <c r="A94" s="18" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3" ht="15.75">
       <c r="A95" s="18" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
     </row>
     <row r="96" spans="1:3" ht="15.75">
       <c r="A96" s="18" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
     </row>
     <row r="97" spans="1:5" ht="15.75">
       <c r="A97" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
     </row>
     <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
+        <v>98</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
     </row>
     <row r="99" spans="1:5" ht="15.75">
       <c r="A99" s="18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
     </row>
     <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="18" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:5" ht="15.75">
-      <c r="A101" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-    </row>
-    <row r="102" spans="1:5" ht="15.75">
-      <c r="A102" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.75">
-      <c r="A103" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.75">
-      <c r="A104" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.75">
-      <c r="A105" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.75">
-      <c r="A106" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.75">
-      <c r="A107" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-    </row>
-    <row r="108" spans="1:5" ht="15.75">
-      <c r="A108" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="22"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
+      <c r="A101" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A55:C55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{EA089D78-1718-4316-8B00-9CA17D7864DA}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{54239A56-7842-4408-954C-0DFC45DB9A73}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{16A31A2A-68BA-481C-8B9E-C42F4BEE23D3}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{B8663CF6-0EAF-4909-9CD3-6861BAC7CDC4}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{4C48981C-440B-41EB-A1D1-FAB5022D88C6}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{35FA3A76-B09D-4ACF-9DB1-D3AA26BD03D1}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{D80C2B9D-51C3-4F83-85F3-A04CA6E2B360}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{10BC8A35-DE95-4C70-8425-F18A874D80EB}"/>
-    <hyperlink ref="A6" r:id="rId9" xr:uid="{095C06A7-4A55-4713-A7D3-873A1DBF5991}"/>
-    <hyperlink ref="B6" r:id="rId10" xr:uid="{A0B0047A-556E-41E0-9794-E4717C3274D6}"/>
-    <hyperlink ref="A7" r:id="rId11" xr:uid="{65D93F5B-E71D-480D-8BBA-FF5E761DBAA2}"/>
-    <hyperlink ref="B7" r:id="rId12" xr:uid="{251A39A3-AFB7-4D7A-A013-D373895D6F7C}"/>
-    <hyperlink ref="A8" r:id="rId13" xr:uid="{BBAB2745-6EA2-433F-8B4C-AD2BB44FC2B0}"/>
-    <hyperlink ref="B8" r:id="rId14" xr:uid="{F03B7036-F0E5-4103-9F67-1C94D40FE3D1}"/>
-    <hyperlink ref="A9" r:id="rId15" xr:uid="{68947490-5DA1-4595-AD38-DB5006EDAAFA}"/>
-    <hyperlink ref="B9" r:id="rId16" xr:uid="{4C2133CA-51FD-4449-A86D-E5B7AB3EAA15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2528,6 +2245,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2538,11 +2261,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
